--- a/testData/ExecuteTask/Notification/ETRM/ET_NT_ETRM_CTAfterHours_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRM/ET_NT_ETRM_CTAfterHours_Test.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="88">
   <si>
     <t>ModuleName</t>
   </si>
@@ -262,12 +262,37 @@
   </si>
   <si>
     <t xml:space="preserve">ET_ETRM_Notify </t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>29-05-2024</t>
+  </si>
+  <si>
+    <t>29-05-2024 06:41:48 PM</t>
+  </si>
+  <si>
+    <t>02:35:55 PM</t>
+  </si>
+  <si>
+    <t>ET449</t>
+  </si>
+  <si>
+    <t>29-05-2024 06:47:50 PM</t>
+  </si>
+  <si>
+    <t>ET450</t>
+  </si>
+  <si>
+    <t>ET451</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -612,34 +637,34 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="9.1796875" style="1"/>
-    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1796875" style="1"/>
-    <col min="20" max="20" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.1796875" style="1"/>
-    <col min="24" max="24" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="13.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="16.81640625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.08984375"/>
+    <col min="12" max="17" style="1" width="9.1796875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="19" max="19" style="1" width="9.1796875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="23.0"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="8.0"/>
+    <col min="22" max="23" style="1" width="9.1796875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="18.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="33.54296875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="12.81640625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="12.26953125"/>
+    <col min="34" max="16384" style="1" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -774,8 +799,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>70</v>
+      <c r="K2" t="s" s="1">
+        <v>81</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -783,11 +808,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>72</v>
+      <c r="N2" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s" s="1">
+        <v>83</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -837,11 +862,11 @@
       <c r="AF2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>68</v>
+      <c r="AG2" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="AK2" t="s" s="1">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -863,23 +888,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" customWidth="true" width="21.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1014,8 +1039,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>70</v>
+      <c r="K2" t="s" s="0">
+        <v>81</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1023,11 +1048,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" t="s">
-        <v>72</v>
+      <c r="N2" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>83</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1076,8 +1101,8 @@
       <c r="AF2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AG2" t="s">
-        <v>74</v>
+      <c r="AG2" t="s" s="0">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1100,12 +1125,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1240,8 +1265,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>70</v>
+      <c r="K2" t="s" s="0">
+        <v>81</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1249,11 +1274,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" t="s">
-        <v>72</v>
+      <c r="N2" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>83</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1302,8 +1327,8 @@
       <c r="AF2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AG2" t="s">
-        <v>75</v>
+      <c r="AG2" t="s" s="0">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1325,11 +1350,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1464,8 +1489,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>70</v>
+      <c r="K2" t="s" s="0">
+        <v>81</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1473,11 +1498,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" t="s">
-        <v>72</v>
+      <c r="N2" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>83</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1526,8 +1551,8 @@
       <c r="AF2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AG2" t="s">
-        <v>75</v>
+      <c r="AG2" t="s" s="0">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/testData/ExecuteTask/Notification/ETRM/ET_NT_ETRM_CTAfterHours_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRM/ET_NT_ETRM_CTAfterHours_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="94">
   <si>
     <t>ModuleName</t>
   </si>
@@ -286,6 +286,24 @@
   </si>
   <si>
     <t>ET451</t>
+  </si>
+  <si>
+    <t>30-05-2024</t>
+  </si>
+  <si>
+    <t>30-05-2024 11:31:54 AM</t>
+  </si>
+  <si>
+    <t>ET452</t>
+  </si>
+  <si>
+    <t>30-05-2024 11:37:56 AM</t>
+  </si>
+  <si>
+    <t>ET453</t>
+  </si>
+  <si>
+    <t>ET454</t>
   </si>
 </sst>
 </file>
@@ -800,7 +818,7 @@
         <v>31</v>
       </c>
       <c r="K2" t="s" s="1">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -809,10 +827,10 @@
         <v>32</v>
       </c>
       <c r="N2" t="s" s="1">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="O2" t="s" s="1">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -863,7 +881,7 @@
         <v>78</v>
       </c>
       <c r="AG2" t="s" s="1">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AK2" t="s" s="1">
         <v>80</v>
@@ -1040,7 +1058,7 @@
         <v>31</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1049,10 +1067,10 @@
         <v>32</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1102,7 +1120,7 @@
         <v>79</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1266,7 +1284,7 @@
         <v>31</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1275,10 +1293,10 @@
         <v>32</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1328,7 +1346,7 @@
         <v>78</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1490,7 +1508,7 @@
         <v>31</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1499,10 +1517,10 @@
         <v>32</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1552,7 +1570,7 @@
         <v>78</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/testData/ExecuteTask/Notification/ETRM/ET_NT_ETRM_CTAfterHours_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRM/ET_NT_ETRM_CTAfterHours_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="81">
   <si>
     <t>ModuleName</t>
   </si>
@@ -228,30 +228,9 @@
     <t>EditSaveName</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>tskNT_ExecuteTask_CTAfterHours</t>
-  </si>
-  <si>
-    <t>05-21-2024</t>
-  </si>
-  <si>
-    <t>05-24-2024 05:00:00 PM</t>
-  </si>
-  <si>
     <t>02:35:55 AM</t>
   </si>
   <si>
-    <t>ET332</t>
-  </si>
-  <si>
-    <t>ET333</t>
-  </si>
-  <si>
-    <t>ET334</t>
-  </si>
-  <si>
     <t>wf_ET_ETRM_Notifications</t>
   </si>
   <si>
@@ -267,27 +246,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>29-05-2024</t>
-  </si>
-  <si>
-    <t>29-05-2024 06:41:48 PM</t>
-  </si>
-  <si>
-    <t>02:35:55 PM</t>
-  </si>
-  <si>
-    <t>ET449</t>
-  </si>
-  <si>
-    <t>29-05-2024 06:47:50 PM</t>
-  </si>
-  <si>
-    <t>ET450</t>
-  </si>
-  <si>
-    <t>ET451</t>
-  </si>
-  <si>
     <t>30-05-2024</t>
   </si>
   <si>
@@ -304,13 +262,15 @@
   </si>
   <si>
     <t>ET454</t>
+  </si>
+  <si>
+    <t>ET_CTAfterHours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -649,40 +609,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="13.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="25.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="14.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="20.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="16.81640625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.08984375"/>
-    <col min="12" max="17" style="1" width="9.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="11.0"/>
-    <col min="19" max="19" style="1" width="9.1796875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="23.0"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="8.0"/>
-    <col min="22" max="23" style="1" width="9.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="18.81640625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="20.0"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="16.26953125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="33.54296875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="12.81640625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="20.0"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.0"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="19.81640625"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="12.26953125"/>
-    <col min="34" max="16384" style="1" width="9.1796875"/>
+    <col min="1" max="1" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="9.1796875" style="1"/>
+    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1796875" style="1"/>
+    <col min="20" max="20" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.1796875" style="1"/>
+    <col min="24" max="24" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -791,7 +751,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -817,8 +777,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="1">
-        <v>88</v>
+      <c r="K2" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -826,11 +786,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="1">
-        <v>89</v>
-      </c>
-      <c r="O2" t="s" s="1">
-        <v>72</v>
+      <c r="N2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -860,13 +820,13 @@
         <v>49</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>44</v>
@@ -878,13 +838,13 @@
         <v>47</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG2" t="s" s="1">
-        <v>90</v>
-      </c>
-      <c r="AK2" t="s" s="1">
-        <v>80</v>
+        <v>71</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -901,28 +861,28 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" customWidth="true" width="21.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1031,7 +991,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1057,8 +1017,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>88</v>
+      <c r="K2" t="s">
+        <v>74</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1066,11 +1026,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>72</v>
+      <c r="N2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" t="s">
+        <v>68</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1100,13 +1060,13 @@
         <v>49</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1117,10 +1077,10 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG2" t="s" s="0">
-        <v>92</v>
+        <v>72</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1138,17 +1098,17 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1257,7 +1217,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1283,8 +1243,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>88</v>
+      <c r="K2" t="s">
+        <v>74</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1292,11 +1252,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>72</v>
+      <c r="N2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" t="s">
+        <v>68</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1326,13 +1286,13 @@
         <v>49</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1343,10 +1303,10 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG2" t="s" s="0">
-        <v>93</v>
+        <v>71</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1362,17 +1322,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.1796875"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1481,7 +1441,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1507,8 +1467,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>88</v>
+      <c r="K2" t="s">
+        <v>74</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1516,11 +1476,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>72</v>
+      <c r="N2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" t="s">
+        <v>68</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1550,13 +1510,13 @@
         <v>49</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1567,10 +1527,10 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG2" t="s" s="0">
-        <v>93</v>
+        <v>71</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/testData/ExecuteTask/Notification/ETRM/ET_NT_ETRM_CTAfterHours_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRM/ET_NT_ETRM_CTAfterHours_Test.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="87">
   <si>
     <t>ModuleName</t>
   </si>
@@ -265,12 +265,31 @@
   </si>
   <si>
     <t>ET_CTAfterHours</t>
+  </si>
+  <si>
+    <t>24-07-2024</t>
+  </si>
+  <si>
+    <t>27-07-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>02:35:55 PM</t>
+  </si>
+  <si>
+    <t>ET2811</t>
+  </si>
+  <si>
+    <t>ET2812</t>
+  </si>
+  <si>
+    <t>ET2813</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -615,34 +634,34 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="9.1796875" style="1"/>
-    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1796875" style="1"/>
-    <col min="20" max="20" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.1796875" style="1"/>
-    <col min="24" max="24" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="13.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="16.81640625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.08984375"/>
+    <col min="12" max="17" style="1" width="9.1796875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="19" max="19" style="1" width="9.1796875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="23.0"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="8.0"/>
+    <col min="22" max="23" style="1" width="9.1796875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="18.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="33.54296875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="12.81640625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="12.26953125"/>
+    <col min="34" max="16384" style="1" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -777,8 +796,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>74</v>
+      <c r="K2" t="s" s="1">
+        <v>81</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -786,11 +805,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>68</v>
+      <c r="N2" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s" s="1">
+        <v>83</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -840,10 +859,10 @@
       <c r="AF2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AG2" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="AK2" t="s" s="1">
         <v>73</v>
       </c>
     </row>
@@ -866,23 +885,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" customWidth="true" width="21.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1017,8 +1036,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>74</v>
+      <c r="K2" t="s" s="0">
+        <v>81</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1026,11 +1045,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" t="s">
-        <v>68</v>
+      <c r="N2" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>83</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1079,8 +1098,8 @@
       <c r="AF2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AG2" t="s">
-        <v>78</v>
+      <c r="AG2" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1103,12 +1122,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1243,8 +1262,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>74</v>
+      <c r="K2" t="s" s="0">
+        <v>81</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1252,11 +1271,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" t="s">
-        <v>68</v>
+      <c r="N2" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>83</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1305,8 +1324,8 @@
       <c r="AF2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AG2" t="s">
-        <v>79</v>
+      <c r="AG2" t="s" s="0">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1328,11 +1347,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1467,8 +1486,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>74</v>
+      <c r="K2" t="s" s="0">
+        <v>81</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1476,11 +1495,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" t="s">
-        <v>68</v>
+      <c r="N2" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>83</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1529,8 +1548,8 @@
       <c r="AF2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AG2" t="s">
-        <v>79</v>
+      <c r="AG2" t="s" s="0">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
